--- a/data/bpcs_tool/bpcs_visual_detection_evaluation/results/visual_evaluation_responses_spreadsheet.xlsx
+++ b/data/bpcs_tool/bpcs_visual_detection_evaluation/results/visual_evaluation_responses_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\improved-steganography-project\data\visual_detection_evaluation\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\improved-steganography-project\data\bpcs_tool\bpcs_visual_detection_evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D27AD-4135-482C-90F3-39C314626D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77FA85-3570-4967-A421-17AB692A8F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
   <si>
     <t>Timestamp</t>
   </si>
@@ -132,12 +132,6 @@
     <t xml:space="preserve">Do you feel you would be able to categorise the images with payloads into the algorithm used? </t>
   </si>
   <si>
-    <t>Ensi Peti</t>
-  </si>
-  <si>
-    <t>2315586p@student.gla.ac.uk</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>After considerable experience there was consistency among the poorer algorithm in identification, however the more powerful algorithms were hard to distinguish between</t>
   </si>
   <si>
-    <t xml:space="preserve">Leo </t>
-  </si>
-  <si>
-    <t>2313556k@student.gla.ac.uk</t>
-  </si>
-  <si>
     <t>I would firstly look for differently coloured pixels which do not fit into the image. I would also look for blurred segments of pixels.</t>
   </si>
   <si>
@@ -168,12 +156,6 @@
     <t>Yes, because for some images the colour changes were much more obvious.</t>
   </si>
   <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>2316957k@student.gla.ac.uk</t>
-  </si>
-  <si>
     <t>I looked for missing pixels and areas of the image where it look as though something had been changed or there pixels were misaligned or out of place. I zoomed in and moved around the image.</t>
   </si>
   <si>
@@ -186,12 +168,6 @@
     <t xml:space="preserve">I could classify images that were done with the poorest algorithm but I dont think i could recognise the difference between the other two. </t>
   </si>
   <si>
-    <t>Ross Boyd</t>
-  </si>
-  <si>
-    <t>2309555b@student.gla.ac.uk</t>
-  </si>
-  <si>
     <t>3/22/0021</t>
   </si>
   <si>
@@ -205,12 +181,6 @@
   </si>
   <si>
     <t>Yes I do, there was a significant gap in quality between the images and it is clear which were related.</t>
-  </si>
-  <si>
-    <t>Mustafaa Ahmad</t>
-  </si>
-  <si>
-    <t>2268435a@student.gla.ac.uk</t>
   </si>
   <si>
     <t>- I was looking for distorted pixel colours 
@@ -373,7 +343,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -459,7 +429,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EA4335"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -942,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1055,519 +1025,499 @@
       <c r="A2" s="2">
         <v>44277.619346041669</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="4">
         <v>44277</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44277.667105590277</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="4">
         <v>44277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44277.689428206024</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="4">
         <v>44277</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44277.732009768515</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44277.789008703709</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="4">
         <v>44277</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2157,21 +2107,21 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ref="B17:E17" si="14">(SUM(A10:A14)/30)</f>
@@ -2192,7 +2142,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="15">100%-B17</f>
